--- a/lmc_tests/lmc_grid_Q.xlsx
+++ b/lmc_tests/lmc_grid_Q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,482 +462,402 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.90607365031387</v>
+        <v>21.03337898124843</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9779411736428293</v>
+        <v>-0.5376235505587186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25726296400772</v>
+        <v>0.428868179006171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3049312479837216</v>
+        <v>0.7065116055803154</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3338251939297499</v>
+        <v>0.5879238061444426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.40253267139925</v>
+        <v>18.25892828690432</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9563559988130301</v>
+        <v>-0.6582518416171577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2624345794303342</v>
+        <v>0.3736293481412826</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3202138980155163</v>
+        <v>0.5675563777835007</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3390424822382566</v>
+        <v>0.4956080640479227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.79576404051825</v>
+        <v>16.45092818664349</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9827372436339434</v>
+        <v>-0.7368605416284983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2534106335020555</v>
+        <v>0.3467548708325849</v>
       </c>
       <c r="E4" t="n">
-        <v>0.292556163862443</v>
+        <v>0.5257716907010888</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3273944265104015</v>
+        <v>0.4522707496658426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.52773443524953</v>
+        <v>14.91692673650138</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9943907047325836</v>
+        <v>-0.803556256852068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2506887533479527</v>
+        <v>0.323078993973023</v>
       </c>
       <c r="E5" t="n">
-        <v>0.289613502698375</v>
+        <v>0.4665037838184369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3239785951817267</v>
+        <v>0.4212236481648253</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.92635509143224</v>
+        <v>13.86597187985901</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8466245892463788</v>
+        <v>-0.8492499462713017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2706360783079794</v>
+        <v>0.3089371422203607</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3341443738703638</v>
+        <v>0.4280748325470352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3492296750414015</v>
+        <v>0.4023591031867468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.42783944422973</v>
+        <v>13.07630541852765</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9552557043421397</v>
+        <v>-0.8835832706770131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2562128209636244</v>
+        <v>0.2970929328635495</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3031799690887193</v>
+        <v>0.4051277915984333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3312860849541325</v>
+        <v>0.385648274931999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.33654326268922</v>
+        <v>12.64732296748741</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9157468426699883</v>
+        <v>-0.9022346815918059</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2586949283985625</v>
+        <v>0.2922174271061767</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3079519135400248</v>
+        <v>0.3947072201386936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3344073626581193</v>
+        <v>0.3774692045816713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.08166636072539</v>
+        <v>12.38311396956612</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.839871925364068</v>
+        <v>-0.9137220293275145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2590749370618169</v>
+        <v>0.2894923543263072</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3048566854140236</v>
+        <v>0.3886953312817902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3367827883506146</v>
+        <v>0.3746748548351986</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.84154644637534</v>
+        <v>12.01456490494625</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9807467042488526</v>
+        <v>-0.9297459017022913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2459663346031366</v>
+        <v>0.2842270456778642</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2737372534746038</v>
+        <v>0.3743348069793842</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3187069392885568</v>
+        <v>0.3681012309613149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.54343399111887</v>
+        <v>11.62684140441642</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8632733327382643</v>
+        <v>-0.946603445203588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2548097207335688</v>
+        <v>0.2798651506253232</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2965468780789842</v>
+        <v>0.3682078138213366</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3307909659966388</v>
+        <v>0.3621822530789787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.70811508747813</v>
+        <v>11.35118553049773</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8995915459400358</v>
+        <v>-0.9585884832000529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256944893171296</v>
+        <v>0.2748303450749444</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2998446505261318</v>
+        <v>0.3521730257510645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3323985986214633</v>
+        <v>0.3568057811553211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.84549452861225</v>
+        <v>11.17413331576251</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7631837441515956</v>
+        <v>-0.9662864055798451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2706715777261877</v>
+        <v>0.270814349144932</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3341159600182118</v>
+        <v>0.3422314453912704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3483952828633868</v>
+        <v>0.3510355667466869</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.96624272194973</v>
+        <v>11.0318507240979</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7579338227021402</v>
+        <v>-0.9724726052174368</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2706511193145549</v>
+        <v>0.2687399562619074</v>
       </c>
       <c r="E14" t="n">
-        <v>0.330954983106482</v>
+        <v>0.3305112876550472</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3464925577147974</v>
+        <v>0.3494661225768616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.40313280756526</v>
+        <v>11.43897062716356</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7824168624579864</v>
+        <v>-0.954771739866756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268052469727675</v>
+        <v>0.271261073415139</v>
       </c>
       <c r="E15" t="n">
-        <v>0.326932658641835</v>
+        <v>0.3446564919529412</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3458531184084199</v>
+        <v>0.3506155440202041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.34811130535497</v>
+        <v>10.73932570627019</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7848091016845207</v>
+        <v>-0.9851910842534244</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2649259090138866</v>
+        <v>0.2661632311303392</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3192532468822055</v>
+        <v>0.3298873242087026</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3419815706413465</v>
+        <v>0.3443058722259971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.11677172464036</v>
+        <v>10.83325840106967</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7079108225851561</v>
+        <v>-0.981107054044751</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2787828779467067</v>
+        <v>0.2653065148281574</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3420150203848719</v>
+        <v>0.3291839656596904</v>
       </c>
       <c r="F17" t="n">
-        <v>0.353140724873559</v>
+        <v>0.3435789010111799</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>15.33558639162815</v>
+        <v>10.9435153596096</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7853536631509043</v>
+        <v>-0.9763132732386671</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2631308774608855</v>
+        <v>0.2658028196991191</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3154265862097436</v>
+        <v>0.3303666849182242</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3386636114817174</v>
+        <v>0.3433006211632451</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15.99941524568663</v>
+        <v>10.14494228780283</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7564915390614052</v>
+        <v>-1.011033841578092</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2701760740435144</v>
+        <v>0.2561196371486715</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3287456707760394</v>
+        <v>0.3015437080790873</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3461761970744408</v>
+        <v>0.3313579492122722</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>17.1117730957918</v>
+        <v>10.35309883310341</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7081281542742237</v>
+        <v>-1.001983556999806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2832870110044559</v>
+        <v>0.2583279751705624</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3554832802450177</v>
+        <v>0.3054154399427252</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3597655758959851</v>
+        <v>0.3358797954214717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>15.73069933638776</v>
+        <v>11.00292300827251</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7681748394657038</v>
+        <v>-0.9737303319924541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.268405245508278</v>
+        <v>0.262429456176429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3291093341486542</v>
+        <v>0.3215859767583241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.345368960775868</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B22" t="n">
-        <v>16.8608063188362</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.7190397532722935</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.2795142744457451</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3547518065478688</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.3581901585865229</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B23" t="n">
-        <v>14.1993498262141</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.8347552529515149</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2555304382320168</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.2959926226178933</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.3303930575888283</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B24" t="n">
-        <v>15.22704688007816</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.79007277234873</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.2650812558140652</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.3145091829750098</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.3403297399358554</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B25" t="n">
-        <v>14.70687216376772</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.8126890643622274</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.2594510937220791</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3026032082935556</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3373759711773431</v>
+        <v>0.3389425711860332</v>
       </c>
     </row>
   </sheetData>
